--- a/docs/demo/file/x2.xlsx
+++ b/docs/demo/file/x2.xlsx
@@ -27,11 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>F7-FormulaR1C1</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,92 +356,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>90</v>
-      </c>
-      <c r="B2">
-        <v>58</v>
-      </c>
-      <c r="C2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>43</v>
-      </c>
-      <c r="B3">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>94</v>
-      </c>
-      <c r="B4">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>58</v>
-      </c>
-      <c r="C5">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>92</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-      <c r="F7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
